--- a/biology/Botanique/Renouée_noueuse/Renouée_noueuse.xlsx
+++ b/biology/Botanique/Renouée_noueuse/Renouée_noueuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_noueuse</t>
+          <t>Renouée_noueuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Persicaria lapathifolia, la Renouée à feuilles d'oseille ou Renouée à feuilles de patience, est une espèce de plantes à fleurs de la famille des Polygonaceae et du genre Rumex. C'est une plante herbacée, annuelle, de 20 à 80 cm de haut, à fleurs blanc verdâtre ou roses en épis. Son aire de répartition est quasi cosmopolite. Elle offre quelques usages, c'est par exemple une plante médicinale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_noueuse</t>
+          <t>Renouée_noueuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Polygonum sous le basionyme Polygonum lapathifolium par Carl von Linné en 1753. Elle est déplacée dans le genre Persicaria sous le nom correct Persicaria lapathifolia par Antoine Delarbre en 1800[1].
-En plus de ses noms recommandés ou typiques « Renouée à feuilles d'oseille » ou « Renouée à feuilles de patience »[2], l'espèce se nomme également en français « Renouée gonflée », « Renouée pâle »[2], « Renouée noueuse », « Saulcettes »[3], « Persicaire à feuilles de patience », « Persicaire élevée », « Persicaire pâle » ou encore « Renouée scabre »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Polygonum sous le basionyme Polygonum lapathifolium par Carl von Linné en 1753. Elle est déplacée dans le genre Persicaria sous le nom correct Persicaria lapathifolia par Antoine Delarbre en 1800.
+En plus de ses noms recommandés ou typiques « Renouée à feuilles d'oseille » ou « Renouée à feuilles de patience », l'espèce se nomme également en français « Renouée gonflée », « Renouée pâle », « Renouée noueuse », « Saulcettes », « Persicaire à feuilles de patience », « Persicaire élevée », « Persicaire pâle » ou encore « Renouée scabre ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_noueuse</t>
+          <t>Renouée_noueuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle de 20 à 80 cm de haut, glabre ou pubescente, à tige dressée ou couchée, rameuse. Les feuilles égalent ou dépassent ordinairement la longueur de deux entrenoeuds, ovales-lancéolées ou lancéolées, atténuées en pétiole, ponctuées-glanduleuses et vertes ou blanchâtres-tomenteuses en dessous. Les gaines sont tronquées, peu ou pas ciliées[2].
-Appareil reproducteur
-Les fleurs sont blanc verdâtre ou roses, en épis oblongs-cylindriques, compacts, dressés ou à la fin penchés. Les pédoncules, les pédicelles et les périanthes sont glanduleux-rudes. Les fruits mesurent 2 à 3 mm, tous lenticulaires à faces concaves, lisses et luisants[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 20 à 80 cm de haut, glabre ou pubescente, à tige dressée ou couchée, rameuse. Les feuilles égalent ou dépassent ordinairement la longueur de deux entrenoeuds, ovales-lancéolées ou lancéolées, atténuées en pétiole, ponctuées-glanduleuses et vertes ou blanchâtres-tomenteuses en dessous. Les gaines sont tronquées, peu ou pas ciliées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renouée_noueuse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renou%C3%A9e_noueuse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanc verdâtre ou roses, en épis oblongs-cylindriques, compacts, dressés ou à la fin penchés. Les pédoncules, les pédicelles et les périanthes sont glanduleux-rudes. Les fruits mesurent 2 à 3 mm, tous lenticulaires à faces concaves, lisses et luisants.
 			Forme dressée.
 			Forme couchée.
 			Tige, gaine et feuilles.
@@ -558,44 +612,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Renou%C3%A9e_noueuse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Renou%C3%A9e_noueuse</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce indigène dans tout l'hémisphère Nord. Elle a été introduite en Amérique du Sud et dans le sud de l'Afrique[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_noueuse</t>
+          <t>Renouée_noueuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +633,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est répandue et abondante, présente partout où se trouve un habitat approprié. Certaines populations peuvent être très étendues et la production de graines est considérable. C'est une espèce caractéristique des habitats boueux humides, que l'on trouve dans les abreuvoirs à bétail des rivières, dans les zones d'abaissement des grands lacs et des réservoirs, dans les terres arables humides, sur les chantiers de construction et dans les zones humides en milieu urbain. C'est également l'une des espèces caractéristiques du Bidentalion, une communauté végétale plus typiquement associée aux dépôts de limon le long des grandes rivières de plaine[6].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce indigène dans tout l'hémisphère Nord. Elle a été introduite en Amérique du Sud et dans le sud de l'Afrique.
 </t>
         </is>
       </c>
@@ -626,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_noueuse</t>
+          <t>Renouée_noueuse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,12 +666,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est répandue et abondante, présente partout où se trouve un habitat approprié. Certaines populations peuvent être très étendues et la production de graines est considérable. C'est une espèce caractéristique des habitats boueux humides, que l'on trouve dans les abreuvoirs à bétail des rivières, dans les zones d'abaissement des grands lacs et des réservoirs, dans les terres arables humides, sur les chantiers de construction et dans les zones humides en milieu urbain. C'est également l'une des espèces caractéristiques du Bidentalion, une communauté végétale plus typiquement associée aux dépôts de limon le long des grandes rivières de plaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renouée_noueuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renou%C3%A9e_noueuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces et variétés selon GBIF       (13 mai 2021)[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés selon GBIF       (13 mai 2021) :
 Persicaria lapathifolia subsp. brittingeri (Opiz) Soják
 Persicaria lapathifolia subsp. glandulosa (R.Br.) Soják
 Persicaria lapathifolia subsp. incana (L.) Delarbre
@@ -660,33 +720,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Renou%C3%A9e_noueuse</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renouée_noueuse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Renou%C3%A9e_noueuse</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (13 mai 2021)[5], Persicaria lapathifolia a 117 synonymes :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (13 mai 2021), Persicaria lapathifolia a 117 synonymes :
 Dioctis maculatum Raf.
 Dioctis vernum Raf.
 Discolenta lapathifolia Raf.
@@ -809,33 +871,35 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Renou%C3%A9e_noueuse</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renouée_noueuse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Renou%C3%A9e_noueuse</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est broyée pour en faire un amidon qui sert à fabriquer un pesticide et à traiter les maladies des poissons. Elle est également utilisée à des fins médicinales pour les humains[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est broyée pour en faire un amidon qui sert à fabriquer un pesticide et à traiter les maladies des poissons. Elle est également utilisée à des fins médicinales pour les humains.
 </t>
         </is>
       </c>
